--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.034276873933</v>
+        <v>0.5156803333333334</v>
       </c>
       <c r="N2">
-        <v>4.034276873933</v>
+        <v>1.547041</v>
       </c>
       <c r="O2">
-        <v>0.5385277640683874</v>
+        <v>0.05562891841766065</v>
       </c>
       <c r="P2">
-        <v>0.5385277640683874</v>
+        <v>0.05562891841766063</v>
       </c>
       <c r="Q2">
-        <v>191.7028923058283</v>
+        <v>25.13767995431767</v>
       </c>
       <c r="R2">
-        <v>191.7028923058283</v>
+        <v>226.239119588859</v>
       </c>
       <c r="S2">
-        <v>0.08291626662925841</v>
+        <v>0.008619093555140773</v>
       </c>
       <c r="T2">
-        <v>0.08291626662925841</v>
+        <v>0.008619093555140771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0513603067756302</v>
+        <v>4.444398333333333</v>
       </c>
       <c r="N3">
-        <v>0.0513603067756302</v>
+        <v>13.333195</v>
       </c>
       <c r="O3">
-        <v>0.00685598733901027</v>
+        <v>0.4794386295526497</v>
       </c>
       <c r="P3">
-        <v>0.00685598733901027</v>
+        <v>0.4794386295526496</v>
       </c>
       <c r="Q3">
-        <v>2.440566095555111</v>
+        <v>216.6494544608116</v>
       </c>
       <c r="R3">
-        <v>2.440566095555111</v>
+        <v>1949.845090147305</v>
       </c>
       <c r="S3">
-        <v>0.001055605508458066</v>
+        <v>0.07428378116283613</v>
       </c>
       <c r="T3">
-        <v>0.001055605508458066</v>
+        <v>0.07428378116283611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.40566994049801</v>
+        <v>0.03264066666666667</v>
       </c>
       <c r="N4">
-        <v>3.40566994049801</v>
+        <v>0.097922</v>
       </c>
       <c r="O4">
-        <v>0.4546162485926024</v>
+        <v>0.003521105742701173</v>
       </c>
       <c r="P4">
-        <v>0.4546162485926024</v>
+        <v>0.003521105742701172</v>
       </c>
       <c r="Q4">
-        <v>161.8324171181637</v>
+        <v>1.591122598875333</v>
       </c>
       <c r="R4">
-        <v>161.8324171181637</v>
+        <v>14.320103389878</v>
       </c>
       <c r="S4">
-        <v>0.06999654353477411</v>
+        <v>0.0005455568915797931</v>
       </c>
       <c r="T4">
-        <v>0.06999654353477411</v>
+        <v>0.000545556891579793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.8969952578389</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>17.8969952578389</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.034276873933</v>
+        <v>0.05817833333333333</v>
       </c>
       <c r="N5">
-        <v>4.034276873933</v>
+        <v>0.174535</v>
       </c>
       <c r="O5">
-        <v>0.5385277640683874</v>
+        <v>0.006275976703931182</v>
       </c>
       <c r="P5">
-        <v>0.5385277640683874</v>
+        <v>0.006275976703931181</v>
       </c>
       <c r="Q5">
-        <v>72.20143408158803</v>
+        <v>2.835997863551666</v>
       </c>
       <c r="R5">
-        <v>72.20143408158803</v>
+        <v>25.523980771965</v>
       </c>
       <c r="S5">
-        <v>0.03122891515780103</v>
+        <v>0.0009723940694826411</v>
       </c>
       <c r="T5">
-        <v>0.03122891515780103</v>
+        <v>0.000972394069482641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.8969952578389</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>17.8969952578389</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0513603067756302</v>
+        <v>4.219107</v>
       </c>
       <c r="N6">
-        <v>0.0513603067756302</v>
+        <v>12.657321</v>
       </c>
       <c r="O6">
-        <v>0.00685598733901027</v>
+        <v>0.4551353695830575</v>
       </c>
       <c r="P6">
-        <v>0.00685598733901027</v>
+        <v>0.4551353695830573</v>
       </c>
       <c r="Q6">
-        <v>0.9191951668046048</v>
+        <v>205.667260516731</v>
       </c>
       <c r="R6">
-        <v>0.9191951668046048</v>
+        <v>1851.005344650579</v>
       </c>
       <c r="S6">
-        <v>0.0003975747607057836</v>
+        <v>0.07051825637229264</v>
       </c>
       <c r="T6">
-        <v>0.0003975747607057836</v>
+        <v>0.07051825637229261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.40566994049801</v>
+        <v>0.5156803333333334</v>
       </c>
       <c r="N7">
-        <v>3.40566994049801</v>
+        <v>1.547041</v>
       </c>
       <c r="O7">
-        <v>0.4546162485926024</v>
+        <v>0.05562891841766065</v>
       </c>
       <c r="P7">
-        <v>0.4546162485926024</v>
+        <v>0.05562891841766063</v>
       </c>
       <c r="Q7">
-        <v>60.95125877485737</v>
+        <v>9.620358342500891</v>
       </c>
       <c r="R7">
-        <v>60.95125877485737</v>
+        <v>86.58322508250801</v>
       </c>
       <c r="S7">
-        <v>0.02636293465986141</v>
+        <v>0.003298584783427956</v>
       </c>
       <c r="T7">
-        <v>0.02636293465986141</v>
+        <v>0.003298584783427954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,119 +906,119 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.38132242466099</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>97.38132242466099</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.034276873933</v>
+        <v>4.444398333333333</v>
       </c>
       <c r="N8">
-        <v>4.034276873933</v>
+        <v>13.333195</v>
       </c>
       <c r="O8">
-        <v>0.5385277640683874</v>
+        <v>0.4794386295526497</v>
       </c>
       <c r="P8">
-        <v>0.5385277640683874</v>
+        <v>0.4794386295526496</v>
       </c>
       <c r="Q8">
-        <v>392.8632170108229</v>
+        <v>82.91319606296223</v>
       </c>
       <c r="R8">
-        <v>392.8632170108229</v>
+        <v>746.21876456666</v>
       </c>
       <c r="S8">
-        <v>0.1699231078815979</v>
+        <v>0.02842890016585061</v>
       </c>
       <c r="T8">
-        <v>0.1699231078815979</v>
+        <v>0.0284289001658506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.38132242466099</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>97.38132242466099</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.0513603067756302</v>
+        <v>0.03264066666666667</v>
       </c>
       <c r="N9">
-        <v>0.0513603067756302</v>
+        <v>0.097922</v>
       </c>
       <c r="O9">
-        <v>0.00685598733901027</v>
+        <v>0.003521105742701173</v>
       </c>
       <c r="P9">
-        <v>0.00685598733901027</v>
+        <v>0.003521105742701172</v>
       </c>
       <c r="Q9">
-        <v>5.001534593947145</v>
+        <v>0.6089332665484445</v>
       </c>
       <c r="R9">
-        <v>5.001534593947145</v>
+        <v>5.480399398936</v>
       </c>
       <c r="S9">
-        <v>0.002163288049329931</v>
+        <v>0.0002087882733313676</v>
       </c>
       <c r="T9">
-        <v>0.002163288049329931</v>
+        <v>0.0002087882733313675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.38132242466099</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>97.38132242466099</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.40566994049801</v>
+        <v>0.05817833333333333</v>
       </c>
       <c r="N10">
-        <v>3.40566994049801</v>
+        <v>0.174535</v>
       </c>
       <c r="O10">
-        <v>0.4546162485926024</v>
+        <v>0.006275976703931182</v>
       </c>
       <c r="P10">
-        <v>0.4546162485926024</v>
+        <v>0.006275976703931181</v>
       </c>
       <c r="Q10">
-        <v>331.6486425476127</v>
+        <v>1.085355361175556</v>
       </c>
       <c r="R10">
-        <v>331.6486425476127</v>
+        <v>9.768198250579999</v>
       </c>
       <c r="S10">
-        <v>0.1434462826405329</v>
+        <v>0.0003721417177538269</v>
       </c>
       <c r="T10">
-        <v>0.1434462826405329</v>
+        <v>0.0003721417177538268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.873918857693</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>136.873918857693</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.4434956639365127</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.4434956639365127</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.034276873933</v>
+        <v>4.219107</v>
       </c>
       <c r="N11">
-        <v>4.034276873933</v>
+        <v>12.657321</v>
       </c>
       <c r="O11">
-        <v>0.5385277640683874</v>
+        <v>0.4551353695830575</v>
       </c>
       <c r="P11">
-        <v>0.5385277640683874</v>
+        <v>0.4551353695830573</v>
       </c>
       <c r="Q11">
-        <v>552.1872854921728</v>
+        <v>78.71023694657201</v>
       </c>
       <c r="R11">
-        <v>552.1872854921728</v>
+        <v>708.3921325191479</v>
       </c>
       <c r="S11">
-        <v>0.2388347282737552</v>
+        <v>0.02698780862922387</v>
       </c>
       <c r="T11">
-        <v>0.2388347282737552</v>
+        <v>0.02698780862922385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.873918857693</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>136.873918857693</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0513603067756302</v>
+        <v>0.5156803333333334</v>
       </c>
       <c r="N12">
-        <v>0.0513603067756302</v>
+        <v>1.547041</v>
       </c>
       <c r="O12">
-        <v>0.00685598733901027</v>
+        <v>0.05562891841766065</v>
       </c>
       <c r="P12">
-        <v>0.00685598733901027</v>
+        <v>0.05562891841766063</v>
       </c>
       <c r="Q12">
-        <v>7.029886462113828</v>
+        <v>50.36205024189823</v>
       </c>
       <c r="R12">
-        <v>7.029886462113828</v>
+        <v>453.2584521770841</v>
       </c>
       <c r="S12">
-        <v>0.003040600656854685</v>
+        <v>0.01726791109809893</v>
       </c>
       <c r="T12">
-        <v>0.003040600656854685</v>
+        <v>0.01726791109809892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.873918857693</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>136.873918857693</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40566994049801</v>
+        <v>4.444398333333333</v>
       </c>
       <c r="N13">
-        <v>3.40566994049801</v>
+        <v>13.333195</v>
       </c>
       <c r="O13">
-        <v>0.4546162485926024</v>
+        <v>0.4794386295526497</v>
       </c>
       <c r="P13">
-        <v>0.4546162485926024</v>
+        <v>0.4794386295526496</v>
       </c>
       <c r="Q13">
-        <v>466.1473910918089</v>
+        <v>434.0460507995755</v>
       </c>
       <c r="R13">
-        <v>466.1473910918089</v>
+        <v>3906.41445719618</v>
       </c>
       <c r="S13">
-        <v>0.2016203350059029</v>
+        <v>0.1488237389400908</v>
       </c>
       <c r="T13">
-        <v>0.2016203350059029</v>
+        <v>0.1488237389400908</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.95439389772258</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>8.95439389772258</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.02901381724116778</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.02901381724116778</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.034276873933</v>
+        <v>0.03264066666666667</v>
       </c>
       <c r="N14">
-        <v>4.034276873933</v>
+        <v>0.097922</v>
       </c>
       <c r="O14">
-        <v>0.5385277640683874</v>
+        <v>0.003521105742701173</v>
       </c>
       <c r="P14">
-        <v>0.5385277640683874</v>
+        <v>0.003521105742701172</v>
       </c>
       <c r="Q14">
-        <v>36.12450422166899</v>
+        <v>3.187732376703111</v>
       </c>
       <c r="R14">
-        <v>36.12450422166899</v>
+        <v>28.689591390328</v>
       </c>
       <c r="S14">
-        <v>0.01562474612597491</v>
+        <v>0.00109299520216209</v>
       </c>
       <c r="T14">
-        <v>0.01562474612597491</v>
+        <v>0.00109299520216209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.95439389772258</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>8.95439389772258</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.02901381724116778</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.02901381724116778</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0513603067756302</v>
+        <v>0.05817833333333333</v>
       </c>
       <c r="N15">
-        <v>0.0513603067756302</v>
+        <v>0.174535</v>
       </c>
       <c r="O15">
-        <v>0.00685598733901027</v>
+        <v>0.006275976703931182</v>
       </c>
       <c r="P15">
-        <v>0.00685598733901027</v>
+        <v>0.006275976703931181</v>
       </c>
       <c r="Q15">
-        <v>0.4599004175768628</v>
+        <v>5.681776009148889</v>
       </c>
       <c r="R15">
-        <v>0.4599004175768628</v>
+        <v>51.13598408234</v>
       </c>
       <c r="S15">
-        <v>0.0001989183636618042</v>
+        <v>0.001948141557661817</v>
       </c>
       <c r="T15">
-        <v>0.0001989183636618042</v>
+        <v>0.001948141557661817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.95439389772258</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>8.95439389772258</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.02901381724116778</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.02901381724116778</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.40566994049801</v>
+        <v>4.219107</v>
       </c>
       <c r="N16">
-        <v>3.40566994049801</v>
+        <v>12.657321</v>
       </c>
       <c r="O16">
-        <v>0.4546162485926024</v>
+        <v>0.4551353695830575</v>
       </c>
       <c r="P16">
-        <v>0.4546162485926024</v>
+        <v>0.4551353695830573</v>
       </c>
       <c r="Q16">
-        <v>30.4957101328526</v>
+        <v>412.0437894857561</v>
       </c>
       <c r="R16">
-        <v>30.4957101328526</v>
+        <v>3708.394105371804</v>
       </c>
       <c r="S16">
-        <v>0.01319015275153106</v>
+        <v>0.1412797034907934</v>
       </c>
       <c r="T16">
-        <v>0.01319015275153106</v>
+        <v>0.1412797034907934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H17">
+        <v>416.159744</v>
+      </c>
+      <c r="I17">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J17">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5156803333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.547041</v>
+      </c>
+      <c r="O17">
+        <v>0.05562891841766065</v>
+      </c>
+      <c r="P17">
+        <v>0.05562891841766063</v>
+      </c>
+      <c r="Q17">
+        <v>71.53513183527824</v>
+      </c>
+      <c r="R17">
+        <v>643.8161865175041</v>
+      </c>
+      <c r="S17">
+        <v>0.02452764117007107</v>
+      </c>
+      <c r="T17">
+        <v>0.02452764117007106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H18">
+        <v>416.159744</v>
+      </c>
+      <c r="I18">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J18">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.444398333333333</v>
+      </c>
+      <c r="N18">
+        <v>13.333195</v>
+      </c>
+      <c r="O18">
+        <v>0.4794386295526497</v>
+      </c>
+      <c r="P18">
+        <v>0.4794386295526496</v>
+      </c>
+      <c r="Q18">
+        <v>616.5265575446756</v>
+      </c>
+      <c r="R18">
+        <v>5548.73901790208</v>
+      </c>
+      <c r="S18">
+        <v>0.211391826467809</v>
+      </c>
+      <c r="T18">
+        <v>0.211391826467809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H19">
+        <v>416.159744</v>
+      </c>
+      <c r="I19">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J19">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03264066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.097922</v>
+      </c>
+      <c r="O19">
+        <v>0.003521105742701173</v>
+      </c>
+      <c r="P19">
+        <v>0.003521105742701172</v>
+      </c>
+      <c r="Q19">
+        <v>4.527910494663112</v>
+      </c>
+      <c r="R19">
+        <v>40.751194451968</v>
+      </c>
+      <c r="S19">
+        <v>0.001552509389638477</v>
+      </c>
+      <c r="T19">
+        <v>0.001552509389638477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H20">
+        <v>416.159744</v>
+      </c>
+      <c r="I20">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J20">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.05817833333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.174535</v>
+      </c>
+      <c r="O20">
+        <v>0.006275976703931182</v>
+      </c>
+      <c r="P20">
+        <v>0.006275976703931181</v>
+      </c>
+      <c r="Q20">
+        <v>8.07049343544889</v>
+      </c>
+      <c r="R20">
+        <v>72.63444091904</v>
+      </c>
+      <c r="S20">
+        <v>0.00276717414187365</v>
+      </c>
+      <c r="T20">
+        <v>0.00276717414187365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H21">
+        <v>416.159744</v>
+      </c>
+      <c r="I21">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J21">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.219107</v>
+      </c>
+      <c r="N21">
+        <v>12.657321</v>
+      </c>
+      <c r="O21">
+        <v>0.4551353695830575</v>
+      </c>
+      <c r="P21">
+        <v>0.4551353695830573</v>
+      </c>
+      <c r="Q21">
+        <v>585.2741630095361</v>
+      </c>
+      <c r="R21">
+        <v>5267.467467085825</v>
+      </c>
+      <c r="S21">
+        <v>0.2006761473434803</v>
+      </c>
+      <c r="T21">
+        <v>0.2006761473434802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H22">
+        <v>32.503417</v>
+      </c>
+      <c r="I22">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J22">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5156803333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.547041</v>
+      </c>
+      <c r="O22">
+        <v>0.05562891841766065</v>
+      </c>
+      <c r="P22">
+        <v>0.05562891841766063</v>
+      </c>
+      <c r="Q22">
+        <v>5.587124304344111</v>
+      </c>
+      <c r="R22">
+        <v>50.284118739097</v>
+      </c>
+      <c r="S22">
+        <v>0.001915687810921923</v>
+      </c>
+      <c r="T22">
+        <v>0.001915687810921922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H23">
+        <v>32.503417</v>
+      </c>
+      <c r="I23">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J23">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.444398333333333</v>
+      </c>
+      <c r="N23">
+        <v>13.333195</v>
+      </c>
+      <c r="O23">
+        <v>0.4794386295526497</v>
+      </c>
+      <c r="P23">
+        <v>0.4794386295526496</v>
+      </c>
+      <c r="Q23">
+        <v>48.15271078081277</v>
+      </c>
+      <c r="R23">
+        <v>433.374397027315</v>
+      </c>
+      <c r="S23">
+        <v>0.01651038281606313</v>
+      </c>
+      <c r="T23">
+        <v>0.01651038281606313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H24">
+        <v>32.503417</v>
+      </c>
+      <c r="I24">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J24">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03264066666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.097922</v>
+      </c>
+      <c r="O24">
+        <v>0.003521105742701173</v>
+      </c>
+      <c r="P24">
+        <v>0.003521105742701172</v>
+      </c>
+      <c r="Q24">
+        <v>0.3536443999415555</v>
+      </c>
+      <c r="R24">
+        <v>3.182799599474</v>
+      </c>
+      <c r="S24">
+        <v>0.0001212559859894447</v>
+      </c>
+      <c r="T24">
+        <v>0.0001212559859894446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H25">
+        <v>32.503417</v>
+      </c>
+      <c r="I25">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J25">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.05817833333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.174535</v>
+      </c>
+      <c r="O25">
+        <v>0.006275976703931182</v>
+      </c>
+      <c r="P25">
+        <v>0.006275976703931181</v>
+      </c>
+      <c r="Q25">
+        <v>0.6303315428994444</v>
+      </c>
+      <c r="R25">
+        <v>5.672983886094999</v>
+      </c>
+      <c r="S25">
+        <v>0.0002161252171592464</v>
+      </c>
+      <c r="T25">
+        <v>0.0002161252171592464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H26">
+        <v>32.503417</v>
+      </c>
+      <c r="I26">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J26">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.219107</v>
+      </c>
+      <c r="N26">
+        <v>12.657321</v>
+      </c>
+      <c r="O26">
+        <v>0.4551353695830575</v>
+      </c>
+      <c r="P26">
+        <v>0.4551353695830573</v>
+      </c>
+      <c r="Q26">
+        <v>45.711798062873</v>
+      </c>
+      <c r="R26">
+        <v>411.406182565857</v>
+      </c>
+      <c r="S26">
+        <v>0.01567345374726726</v>
+      </c>
+      <c r="T26">
+        <v>0.01567345374726725</v>
       </c>
     </row>
   </sheetData>
